--- a/outputs/everything.xlsx
+++ b/outputs/everything.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81EBB280-7B83-C342-ADD1-656C275AF3D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B41753DA-33C8-7B4C-BB13-62EEE4721A05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="everything-pred-t-p" sheetId="3" r:id="rId1"/>
+    <sheet name="everything_pred-t-p" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'everything-pred-t-p'!$F$1:$F$914</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'everything_pred-t-p'!$F$1:$F$914</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2808,7 +2808,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3163,11 +3163,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21459,7 +21459,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F914"/>
+  <autoFilter ref="F1:F914" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
